--- a/F_dataset/DUD-E/AKT2/AKT2_prepare/AKT2_active.xlsx
+++ b/F_dataset/DUD-E/AKT2/AKT2_prepare/AKT2_active.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T131"/>
+  <dimension ref="A1:T118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7321,1098 +7321,6 @@
       <c r="S118" t="inlineStr"/>
       <c r="T118" t="inlineStr"/>
     </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>CHEMBL3679634</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>1</v>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>N=c1ccc2nc(-c3ccc(C4(NC(=O)Cc5cccnc5)CCC4)cc3)c(-c3ccccc3)cc2n1C(N)=O</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>N=c1ccc2nc(-c3ccc(C4(NC(=O)Cc5cccnc5)CCC4)cc3)c(-c3ccccc3)cc2n1C(N)=O</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G119" t="n">
-        <v>528.62</v>
-      </c>
-      <c r="H119" t="n">
-        <v>3</v>
-      </c>
-      <c r="I119" t="n">
-        <v>4</v>
-      </c>
-      <c r="J119" t="n">
-        <v>6</v>
-      </c>
-      <c r="K119" t="n">
-        <v>6</v>
-      </c>
-      <c r="L119" t="n">
-        <v>5</v>
-      </c>
-      <c r="M119" t="n">
-        <v>126.75</v>
-      </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O119" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P119" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q119" t="n">
-        <v>200</v>
-      </c>
-      <c r="R119" t="inlineStr">
-        <is>
-          <t>CHEMBL3707653</t>
-        </is>
-      </c>
-      <c r="S119" t="inlineStr">
-        <is>
-          <t>Kinase Assay: Activated Akt isoforms and pleckstrin homology domain deletion constructs were assayed utilizing a GSK-derived biotinylated peptide substrate. The extend of peptide was determined by Homogeneous Time Resolved Fluorescence (HTRF) using a lanthanide chelate (Lance)-coupled monoclonal antibody specific for the phosphopeptide in combination with a streptavidin-linked allophycocyanin (SA-APC) fluorophore which will bind to the biotin moiety on the peptide.</t>
-        </is>
-      </c>
-      <c r="T119" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>CHEMBL3137336</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>1</v>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Cn1ncc(Cl)c1-c1cc(C(=O)N[C@H](CN)Cc2ccc(F)c(F)c2)oc1Cl</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Cn1ncc(Cl)c1-c1cc(C(=O)N[C@H](CN)Cc2ccc(F)c(F)c2)oc1Cl</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G120" t="n">
-        <v>429.25</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>4</v>
-      </c>
-      <c r="J120" t="n">
-        <v>6</v>
-      </c>
-      <c r="K120" t="n">
-        <v>3</v>
-      </c>
-      <c r="L120" t="n">
-        <v>3</v>
-      </c>
-      <c r="M120" t="n">
-        <v>86.08</v>
-      </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P120" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q120" t="n">
-        <v>1</v>
-      </c>
-      <c r="R120" t="inlineStr">
-        <is>
-          <t>CHEMBL4407364</t>
-        </is>
-      </c>
-      <c r="S120" t="inlineStr">
-        <is>
-          <t>Inhibition of human Akt2 by mobile shift assay</t>
-        </is>
-      </c>
-      <c r="T120" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>CHEMBL379849</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>1</v>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>O=C1/C(=C/c2ccccc2F)CNC/C1=C\c1ccccc1F</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>O=C1/C(=C/c2ccccc2F)CNC/C1=C\c1ccccc1F</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G121" t="n">
-        <v>311.33</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>2</v>
-      </c>
-      <c r="J121" t="n">
-        <v>2</v>
-      </c>
-      <c r="K121" t="n">
-        <v>3</v>
-      </c>
-      <c r="L121" t="n">
-        <v>2</v>
-      </c>
-      <c r="M121" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O121" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P121" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q121" t="n">
-        <v>720</v>
-      </c>
-      <c r="R121" t="inlineStr">
-        <is>
-          <t>CHEMBL2344121</t>
-        </is>
-      </c>
-      <c r="S121" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant AKT2 (unknown origin) by FRET-based Z'-LYTE assay</t>
-        </is>
-      </c>
-      <c r="T121" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>CHEMBL2325737</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>1</v>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>NC1(C(=O)NC(CO)c2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>NC1(C(=O)NC(CO)c2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G122" t="n">
-        <v>414.9</v>
-      </c>
-      <c r="H122" t="n">
-        <v>4</v>
-      </c>
-      <c r="I122" t="n">
-        <v>6</v>
-      </c>
-      <c r="J122" t="n">
-        <v>5</v>
-      </c>
-      <c r="K122" t="n">
-        <v>4</v>
-      </c>
-      <c r="L122" t="n">
-        <v>3</v>
-      </c>
-      <c r="M122" t="n">
-        <v>120.16</v>
-      </c>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P122" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q122" t="n">
-        <v>46</v>
-      </c>
-      <c r="R122" t="inlineStr">
-        <is>
-          <t>CHEMBL2330885</t>
-        </is>
-      </c>
-      <c r="S122" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant Akt2 (unknown origin) using 5-FAM-labeled peptide as substrate after 1 hr by caliper off-chip incubation mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T122" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>CHEMBL603675</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>1</v>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>CC(C)(C)c1ccc(CC2(N)CCN(c3ccnc4[nH]ncc34)CC2)cc1</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>CC(C)(C)c1ccc(CC2(N)CCN(c3ccnc4[nH]ncc34)CC2)cc1</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G123" t="n">
-        <v>363.51</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>4</v>
-      </c>
-      <c r="J123" t="n">
-        <v>3</v>
-      </c>
-      <c r="K123" t="n">
-        <v>4</v>
-      </c>
-      <c r="L123" t="n">
-        <v>3</v>
-      </c>
-      <c r="M123" t="n">
-        <v>70.83</v>
-      </c>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O123" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P123" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q123" t="n">
-        <v>58</v>
-      </c>
-      <c r="R123" t="inlineStr">
-        <is>
-          <t>CHEMBL1072809</t>
-        </is>
-      </c>
-      <c r="S123" t="inlineStr">
-        <is>
-          <t>Inhibition of PKBbeta by radiometric filter binding assay</t>
-        </is>
-      </c>
-      <c r="T123" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>CHEMBL389176</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>1</v>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>NC(c1ccccc1)c1ccc(-c2ncnc3[nH]cnc23)cc1</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>NC(c1ccccc1)c1ccc(-c2ncnc3[nH]cnc23)cc1</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G124" t="n">
-        <v>301.35</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>4</v>
-      </c>
-      <c r="J124" t="n">
-        <v>3</v>
-      </c>
-      <c r="K124" t="n">
-        <v>4</v>
-      </c>
-      <c r="L124" t="n">
-        <v>4</v>
-      </c>
-      <c r="M124" t="n">
-        <v>80.48</v>
-      </c>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O124" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P124" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q124" t="n">
-        <v>400</v>
-      </c>
-      <c r="R124" t="inlineStr">
-        <is>
-          <t>CHEMBL919346</t>
-        </is>
-      </c>
-      <c r="S124" t="inlineStr">
-        <is>
-          <t>Inhibition of PKBbeta by radiometric filter binding assay</t>
-        </is>
-      </c>
-      <c r="T124" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>CHEMBL228751</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>1</v>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(-c3ccccc3)c[nH]1)C(=O)N2</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(-c3ccccc3)c[nH]1)C(=O)N2</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G125" t="n">
-        <v>344.37</v>
-      </c>
-      <c r="H125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I125" t="n">
-        <v>2</v>
-      </c>
-      <c r="J125" t="n">
-        <v>3</v>
-      </c>
-      <c r="K125" t="n">
-        <v>4</v>
-      </c>
-      <c r="L125" t="n">
-        <v>3</v>
-      </c>
-      <c r="M125" t="n">
-        <v>100.01</v>
-      </c>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O125" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P125" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q125" t="n">
-        <v>21</v>
-      </c>
-      <c r="R125" t="inlineStr">
-        <is>
-          <t>CHEMBL889499</t>
-        </is>
-      </c>
-      <c r="S125" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT2</t>
-        </is>
-      </c>
-      <c r="T125" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>CHEMBL3703130</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>1</v>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>NC1(c2ccc(-c3nc4ccc(-c5ccccn5)cn4c3-c3ccccc3)cc2)CCC1</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>NC1(c2ccc(-c3nc4ccc(-c5ccccn5)cn4c3-c3ccccc3)cc2)CCC1</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G126" t="n">
-        <v>416.53</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>3</v>
-      </c>
-      <c r="J126" t="n">
-        <v>4</v>
-      </c>
-      <c r="K126" t="n">
-        <v>6</v>
-      </c>
-      <c r="L126" t="n">
-        <v>5</v>
-      </c>
-      <c r="M126" t="n">
-        <v>56.21</v>
-      </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O126" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P126" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q126" t="n">
-        <v>462</v>
-      </c>
-      <c r="R126" t="inlineStr">
-        <is>
-          <t>CHEMBL3705585</t>
-        </is>
-      </c>
-      <c r="S126" t="inlineStr">
-        <is>
-          <t>TR-FRET Assay: For the assay 50 nl of a 100 fold concentrated solution of the test compound in DMSO was pipetted into a black low volume 384 well microtiter plate (Greiner Bio-One, Frickenhausen, Germany), 2 ul of a solution of Akt2 in assay buffer [50 mM TRIS/HCl pH 7.5, 5 mM MgCl2, 1 mM dithiothreitol, 0.02% (v/v) Triton X-100 (Sigma)] were added and the mixture was incubated for 15 min at 22 C. to allow prebinding of the test compounds to the enzyme before the start of the kinase reaction. Then the kinase reaction was started by the addition of 3 ul of a solution of adenosine-tri-phosphate (ATP, 16.7 uM=&gt;final conc. in the 5 ul assay volume is 10 uM) and substrate (1.67 uM=&gt;final conc. in the 5 ul assay volume is 1 uM) in assay buffer and the resulting mixture was incubated for a reaction time of 60 min at 22 C. The concentration of Akt2 in the assay was adjusted depending of the activity of the enzyme lot.</t>
-        </is>
-      </c>
-      <c r="T126" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>CHEMBL2012702</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>1</v>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Cc1c(NCCN(C)C)cc(Cl)cc1N1CCN(c2ncnc3[nH]nc(Br)c23)CC1</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Cc1c(NCCN(C)C)cc(Cl)cc1N1CCN(c2ncnc3[nH]nc(Br)c23)CC1</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G127" t="n">
-        <v>493.84</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>7</v>
-      </c>
-      <c r="J127" t="n">
-        <v>6</v>
-      </c>
-      <c r="K127" t="n">
-        <v>4</v>
-      </c>
-      <c r="L127" t="n">
-        <v>3</v>
-      </c>
-      <c r="M127" t="n">
-        <v>76.20999999999999</v>
-      </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O127" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P127" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q127" t="n">
-        <v>311</v>
-      </c>
-      <c r="R127" t="inlineStr">
-        <is>
-          <t>CHEMBL2014741</t>
-        </is>
-      </c>
-      <c r="S127" t="inlineStr">
-        <is>
-          <t>Inhibition of Akt2</t>
-        </is>
-      </c>
-      <c r="T127" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>CHEMBL258696</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>1</v>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>CCN(CC)CCNC(=O)c1ccc2nc(-c3ccccc3)c(-c3ccc(CN4CCC(n5c(=O)[nH]c6ccccc65)CC4)cc3)nc2c1</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>CCN(CC)CCNC(=O)c1ccc2nc(-c3ccccc3)c(-c3ccc(CN4CCC(n5c(=O)[nH]c6ccccc65)CC4)cc3)nc2c1</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G128" t="n">
-        <v>653.83</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>6</v>
-      </c>
-      <c r="J128" t="n">
-        <v>11</v>
-      </c>
-      <c r="K128" t="n">
-        <v>7</v>
-      </c>
-      <c r="L128" t="n">
-        <v>6</v>
-      </c>
-      <c r="M128" t="n">
-        <v>99.15000000000001</v>
-      </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O128" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P128" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q128" t="n">
-        <v>212</v>
-      </c>
-      <c r="R128" t="inlineStr">
-        <is>
-          <t>CHEMBL937418</t>
-        </is>
-      </c>
-      <c r="S128" t="inlineStr">
-        <is>
-          <t>Inhibition of Akt2</t>
-        </is>
-      </c>
-      <c r="T128" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>CHEMBL383264</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>1</v>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>N[C@H](COc1cncc(-c2ccc3cnccc3c2)c1)Cc1c[nH]c2ccccc12</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>N[C@H](COc1cncc(-c2ccc3cnccc3c2)c1)Cc1c[nH]c2ccccc12</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G129" t="n">
-        <v>394.48</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>4</v>
-      </c>
-      <c r="J129" t="n">
-        <v>6</v>
-      </c>
-      <c r="K129" t="n">
-        <v>5</v>
-      </c>
-      <c r="L129" t="n">
-        <v>5</v>
-      </c>
-      <c r="M129" t="n">
-        <v>76.81999999999999</v>
-      </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O129" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P129" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q129" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="R129" t="inlineStr">
-        <is>
-          <t>CHEMBL861321</t>
-        </is>
-      </c>
-      <c r="S129" t="inlineStr">
-        <is>
-          <t>Inhibition of Akt2 at 5 uM ATP</t>
-        </is>
-      </c>
-      <c r="T129" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>CHEMBL493911</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>1</v>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2cncc(OC3CCNCC3)c21</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2cncc(OC3CCNCC3)c21</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G130" t="n">
-        <v>329.36</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>8</v>
-      </c>
-      <c r="J130" t="n">
-        <v>4</v>
-      </c>
-      <c r="K130" t="n">
-        <v>4</v>
-      </c>
-      <c r="L130" t="n">
-        <v>3</v>
-      </c>
-      <c r="M130" t="n">
-        <v>116.91</v>
-      </c>
-      <c r="N130" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O130" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P130" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q130" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R130" t="inlineStr">
-        <is>
-          <t>CHEMBL1028093</t>
-        </is>
-      </c>
-      <c r="S130" t="inlineStr">
-        <is>
-          <t>Inhibition of human AKT2</t>
-        </is>
-      </c>
-      <c r="T130" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>CHEMBL608533</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>1</v>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>CO[C@@H]1[C@H](N(C)C(=O)c2ccccc2)C[C@H]2O[C@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>CO[C@@H]1[C@H](N(C)C(=O)c2ccccc2)C[C@H]2O[C@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G131" t="n">
-        <v>570.65</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>4</v>
-      </c>
-      <c r="J131" t="n">
-        <v>3</v>
-      </c>
-      <c r="K131" t="n">
-        <v>9</v>
-      </c>
-      <c r="L131" t="n">
-        <v>6</v>
-      </c>
-      <c r="M131" t="n">
-        <v>77.73</v>
-      </c>
-      <c r="N131" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O131" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P131" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q131" t="n">
-        <v>780</v>
-      </c>
-      <c r="R131" t="inlineStr">
-        <is>
-          <t>CHEMBL1244720</t>
-        </is>
-      </c>
-      <c r="S131" t="inlineStr">
-        <is>
-          <t>Binding affinity to AKT2</t>
-        </is>
-      </c>
-      <c r="T131" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
